--- a/Ref/GO_terms/complex_count_rank_select_for_plotting.xlsx
+++ b/Ref/GO_terms/complex_count_rank_select_for_plotting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Yolanda1TB/CRF_Screen/Ref/GO_terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F12836-3D1E-2E45-865D-53B8B506FB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7388E5E7-204D-2942-84E6-777E0D8E91A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="340" yWindow="500" windowWidth="28040" windowHeight="15700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="468">
   <si>
     <t>complex</t>
   </si>
@@ -1394,6 +1394,36 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>abbr</t>
+  </si>
+  <si>
+    <t>Histone Methylation</t>
+  </si>
+  <si>
+    <t>Histone Acetylation</t>
+  </si>
+  <si>
+    <t>Histone Ubiquitination</t>
+  </si>
+  <si>
+    <t>Arginine Methylation</t>
+  </si>
+  <si>
+    <t>DNA Methylation / Demethylation</t>
+  </si>
+  <si>
+    <t>Ino80</t>
+  </si>
+  <si>
+    <t>Histone Demethylation</t>
+  </si>
+  <si>
+    <t>Bromodomain</t>
+  </si>
+  <si>
+    <t>Chromodomain</t>
   </si>
 </sst>
 </file>
@@ -1883,9 +1913,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2241,18 +2272,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C455"/>
+  <dimension ref="A1:D455"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
-      <selection activeCell="A232" sqref="A232"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="86.83203125" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2262,8 +2294,11 @@
       <c r="C1" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2271,7 +2306,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2279,7 +2314,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2287,7 +2322,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2295,37 +2330,38 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D6" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>30</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>30</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2333,7 +2369,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2341,7 +2377,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -2349,7 +2385,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -2357,15 +2393,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C13" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D13" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -2373,15 +2415,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C15" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D15" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2389,7 +2437,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -2397,7 +2445,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -2405,7 +2453,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -2413,7 +2461,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -2421,7 +2469,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -2429,7 +2477,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -2437,15 +2485,21 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C23" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D23" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -2453,7 +2507,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2517,11 @@
       <c r="C25" s="1" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -2472,7 +2529,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -2480,7 +2537,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -2488,7 +2545,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -2496,15 +2553,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C30" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D30" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -2512,7 +2575,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -2520,7 +2583,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -2528,7 +2591,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
@@ -2538,8 +2601,11 @@
       <c r="C34" s="1" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -2547,7 +2613,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -2555,7 +2621,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -2563,7 +2629,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -2571,7 +2637,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -2579,7 +2645,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -2587,7 +2653,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -2595,7 +2661,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -2603,7 +2669,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -2611,7 +2677,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -2619,7 +2685,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -2627,7 +2693,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -2635,7 +2701,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -2643,7 +2709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -2651,7 +2717,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -2659,7 +2725,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -2667,7 +2733,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -2675,7 +2741,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -2683,7 +2749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -2691,7 +2757,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -2699,7 +2765,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -2707,7 +2773,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -2715,7 +2781,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -2723,7 +2789,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -2731,7 +2797,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -2739,7 +2805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -2747,7 +2813,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -2755,7 +2821,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>62</v>
       </c>
@@ -2765,8 +2831,11 @@
       <c r="C62" s="1" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D62" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -2774,7 +2843,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -2782,7 +2851,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -2790,7 +2859,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -2798,7 +2867,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -2806,7 +2875,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>68</v>
       </c>
@@ -2816,8 +2885,11 @@
       <c r="C68" s="1" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D68" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>69</v>
       </c>
@@ -2827,8 +2899,11 @@
       <c r="C69" s="1" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D69" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -2836,7 +2911,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -2844,7 +2919,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>72</v>
       </c>
@@ -2852,7 +2927,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>73</v>
       </c>
@@ -2860,7 +2935,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>74</v>
       </c>
@@ -2868,7 +2943,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>75</v>
       </c>
@@ -2876,7 +2951,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -2884,7 +2959,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>77</v>
       </c>
@@ -2892,7 +2967,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -2900,7 +2975,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -2908,7 +2983,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>80</v>
       </c>
@@ -2941,15 +3016,13 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B84" s="2">
         <v>7</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>457</v>
-      </c>
+      <c r="C84" s="2"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
@@ -3152,15 +3225,13 @@
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
+      <c r="A110" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B110" s="1">
+      <c r="B110" s="2">
         <v>5</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>457</v>
-      </c>
+      <c r="C110" s="2"/>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
@@ -3178,7 +3249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>113</v>
       </c>
@@ -3186,7 +3257,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>114</v>
       </c>
@@ -3194,7 +3265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>115</v>
       </c>
@@ -3202,7 +3273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>116</v>
       </c>
@@ -3210,7 +3281,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>117</v>
       </c>
@@ -3218,7 +3289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>118</v>
       </c>
@@ -3226,15 +3297,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C119" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D119" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>120</v>
       </c>
@@ -3242,7 +3319,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>121</v>
       </c>
@@ -3250,7 +3327,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>122</v>
       </c>
@@ -3258,7 +3335,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>123</v>
       </c>
@@ -3268,8 +3345,11 @@
       <c r="C123" s="1" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D123" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>124</v>
       </c>
@@ -3277,7 +3357,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>125</v>
       </c>
@@ -3285,7 +3365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>126</v>
       </c>
@@ -3293,7 +3373,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>127</v>
       </c>
@@ -3301,7 +3381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>128</v>
       </c>
@@ -3502,15 +3582,13 @@
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A153" s="1" t="s">
+      <c r="A153" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B153" s="1">
+      <c r="B153" s="2">
         <v>4</v>
       </c>
-      <c r="C153" s="1" t="s">
-        <v>457</v>
-      </c>
+      <c r="C153" s="2"/>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
@@ -3952,7 +4030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>209</v>
       </c>
@@ -3960,7 +4038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>210</v>
       </c>
@@ -3970,8 +4048,11 @@
       <c r="C210" s="1" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D210" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>211</v>
       </c>
@@ -3979,7 +4060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>212</v>
       </c>
@@ -3987,7 +4068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>213</v>
       </c>
@@ -3995,7 +4076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>214</v>
       </c>
@@ -4003,7 +4084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>215</v>
       </c>
@@ -4011,7 +4092,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>216</v>
       </c>
@@ -4019,7 +4100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>217</v>
       </c>
@@ -4027,7 +4108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>218</v>
       </c>
@@ -4035,7 +4116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>219</v>
       </c>
@@ -4043,7 +4124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>220</v>
       </c>
@@ -4051,7 +4132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>221</v>
       </c>
@@ -4059,7 +4140,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>222</v>
       </c>
@@ -4067,7 +4148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>223</v>
       </c>
@@ -4075,7 +4156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>224</v>
       </c>

--- a/Ref/GO_terms/complex_count_rank_select_for_plotting.xlsx
+++ b/Ref/GO_terms/complex_count_rank_select_for_plotting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Yolanda1TB/CRF_Screen/Ref/GO_terms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7388E5E7-204D-2942-84E6-777E0D8E91A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83785DE-9FE2-E14E-8EFF-2F926F2B1EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="340" yWindow="500" windowWidth="28040" windowHeight="15700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1411,9 +1411,6 @@
     <t>Arginine Methylation</t>
   </si>
   <si>
-    <t>DNA Methylation / Demethylation</t>
-  </si>
-  <si>
     <t>Ino80</t>
   </si>
   <si>
@@ -1424,6 +1421,9 @@
   </si>
   <si>
     <t>Chromodomain</t>
+  </si>
+  <si>
+    <t>DNA Methylation - Demethylation</t>
   </si>
 </sst>
 </file>
@@ -2274,8 +2274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D455"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2496,7 +2496,7 @@
         <v>457</v>
       </c>
       <c r="D23" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -2518,7 +2518,7 @@
         <v>457</v>
       </c>
       <c r="D25" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -2564,7 +2564,7 @@
         <v>457</v>
       </c>
       <c r="D30" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -2900,7 +2900,7 @@
         <v>457</v>
       </c>
       <c r="D69" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -3308,7 +3308,7 @@
         <v>457</v>
       </c>
       <c r="D119" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -3346,7 +3346,7 @@
         <v>457</v>
       </c>
       <c r="D123" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -4049,7 +4049,7 @@
         <v>457</v>
       </c>
       <c r="D210" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
